--- a/Declaração de Imposto de Renda.xlsx
+++ b/Declaração de Imposto de Renda.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucio\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086985BA-A2B9-4C01-8FBB-2B1E21F77BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE14C77E-7C89-477C-BC9F-F934FB2E7703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="1980" windowWidth="23256" windowHeight="12576" tabRatio="5" xr2:uid="{1C1F6274-6663-434E-B6B1-2886BA4432A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="352" xr2:uid="{1C1F6274-6663-434E-B6B1-2886BA4432A3}"/>
   </bookViews>
   <sheets>
     <sheet name="TITULAR" sheetId="4" r:id="rId1"/>
@@ -757,11 +757,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>465297</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>217172</xdr:rowOff>
+      <xdr:rowOff>222887</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2354103</xdr:colOff>
+      <xdr:colOff>2361723</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>112818</xdr:rowOff>
     </xdr:to>
@@ -846,8 +846,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="469107" y="1038227"/>
-          <a:ext cx="1881186" cy="1789216"/>
+          <a:off x="465297" y="1053467"/>
+          <a:ext cx="1896426" cy="1802551"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -869,13 +869,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>146685</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>108585</xdr:rowOff>
+      <xdr:rowOff>110490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2672715</xdr:colOff>
+      <xdr:colOff>2674620</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -892,8 +892,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="142875" y="104775"/>
-          <a:ext cx="2533650" cy="619125"/>
+          <a:off x="152400" y="110490"/>
+          <a:ext cx="2522220" cy="613410"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1022,15 +1022,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>140970</xdr:colOff>
+      <xdr:colOff>153353</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2667000</xdr:colOff>
+      <xdr:colOff>2673668</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>108586</xdr:rowOff>
+      <xdr:rowOff>110491</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1046,8 +1046,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="133350" y="3133725"/>
-          <a:ext cx="2533650" cy="523876"/>
+          <a:off x="153353" y="3169920"/>
+          <a:ext cx="2520315" cy="537211"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1120,15 +1120,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>140970</xdr:colOff>
+      <xdr:colOff>153353</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>146685</xdr:rowOff>
+      <xdr:rowOff>148590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2667000</xdr:colOff>
+      <xdr:colOff>2673668</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>102871</xdr:rowOff>
+      <xdr:rowOff>108586</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1144,8 +1144,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="133350" y="4514850"/>
-          <a:ext cx="2533650" cy="523876"/>
+          <a:off x="153353" y="4575810"/>
+          <a:ext cx="2520315" cy="531496"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1198,15 +1198,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>140970</xdr:colOff>
+      <xdr:colOff>153353</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>65723</xdr:rowOff>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2667000</xdr:colOff>
+      <xdr:colOff>2671763</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>174309</xdr:rowOff>
+      <xdr:rowOff>174308</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1222,8 +1222,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="133350" y="3824288"/>
-          <a:ext cx="2533650" cy="523876"/>
+          <a:off x="153353" y="3871912"/>
+          <a:ext cx="2518410" cy="539116"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1278,13 +1278,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>5715</xdr:rowOff>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>5715</xdr:rowOff>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1299,8 +1299,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="5715000"/>
-          <a:ext cx="2828925" cy="381000"/>
+          <a:off x="0" y="5764530"/>
+          <a:ext cx="2827020" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1360,15 +1360,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>481489</xdr:colOff>
+      <xdr:colOff>477680</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>43815</xdr:rowOff>
+      <xdr:rowOff>41910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2358865</xdr:colOff>
+      <xdr:colOff>2349341</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>43815</xdr:rowOff>
+      <xdr:rowOff>41910</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1383,8 +1383,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="473869" y="5753100"/>
-          <a:ext cx="1881186" cy="0"/>
+          <a:off x="477680" y="5802630"/>
+          <a:ext cx="1871661" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1415,15 +1415,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1134427</xdr:colOff>
+      <xdr:colOff>1127760</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>5715</xdr:rowOff>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1705927</xdr:colOff>
+      <xdr:colOff>1699260</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>5715</xdr:rowOff>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1467,7 +1467,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1128712" y="6096000"/>
+          <a:off x="1127760" y="6145530"/>
           <a:ext cx="571500" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1585,13 +1585,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>469107</xdr:colOff>
+      <xdr:colOff>471012</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>209552</xdr:rowOff>
+      <xdr:rowOff>213362</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2350293</xdr:colOff>
+      <xdr:colOff>2356008</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>189018</xdr:rowOff>
     </xdr:to>
@@ -1676,8 +1676,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="469107" y="1038227"/>
-          <a:ext cx="1881186" cy="1789216"/>
+          <a:off x="471012" y="1043942"/>
+          <a:ext cx="1884996" cy="1796836"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1699,13 +1699,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:colOff>148590</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2676525</xdr:colOff>
+      <xdr:colOff>2678430</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -1722,8 +1722,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="142875" y="104775"/>
-          <a:ext cx="2533650" cy="619125"/>
+          <a:off x="148590" y="106680"/>
+          <a:ext cx="2529840" cy="617220"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1852,15 +1852,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:colOff>148590</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2667000</xdr:colOff>
+      <xdr:colOff>2678430</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:rowOff>7621</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1876,8 +1876,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="133350" y="3133725"/>
-          <a:ext cx="2533650" cy="523876"/>
+          <a:off x="148590" y="3147060"/>
+          <a:ext cx="2529840" cy="533401"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1933,13 +1933,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:colOff>148590</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2667000</xdr:colOff>
+      <xdr:colOff>2678430</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
@@ -1957,8 +1957,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="133350" y="4514850"/>
-          <a:ext cx="2533650" cy="523876"/>
+          <a:off x="148590" y="4541520"/>
+          <a:ext cx="2529840" cy="533401"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2011,15 +2011,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:colOff>148590</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>176213</xdr:rowOff>
+      <xdr:rowOff>172402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2667000</xdr:colOff>
+      <xdr:colOff>2676525</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>128589</xdr:rowOff>
+      <xdr:rowOff>128588</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2035,8 +2035,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="133350" y="3824288"/>
-          <a:ext cx="2533650" cy="523876"/>
+          <a:off x="148590" y="3845242"/>
+          <a:ext cx="2527935" cy="527686"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2166,13 +2166,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2187,8 +2187,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="5715000"/>
-          <a:ext cx="2828925" cy="381000"/>
+          <a:off x="0" y="5753100"/>
+          <a:ext cx="2827020" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2248,15 +2248,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>473869</xdr:colOff>
+      <xdr:colOff>473870</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2355055</xdr:colOff>
+      <xdr:colOff>2353151</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2271,8 +2271,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="473869" y="5753100"/>
-          <a:ext cx="1881186" cy="0"/>
+          <a:off x="473870" y="5791200"/>
+          <a:ext cx="1879281" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2303,15 +2303,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1128712</xdr:colOff>
+      <xdr:colOff>1127760</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1700212</xdr:colOff>
+      <xdr:colOff>1699260</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2355,7 +2355,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1128712" y="6096000"/>
+          <a:off x="1127760" y="6134100"/>
           <a:ext cx="571500" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2512,15 +2512,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>469107</xdr:colOff>
+      <xdr:colOff>471012</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>209552</xdr:rowOff>
+      <xdr:rowOff>213362</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2350293</xdr:colOff>
+      <xdr:colOff>2356008</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>131868</xdr:rowOff>
+      <xdr:rowOff>135678</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2603,8 +2603,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="469107" y="1038227"/>
-          <a:ext cx="1881186" cy="1789216"/>
+          <a:off x="471012" y="1043942"/>
+          <a:ext cx="1884996" cy="1812076"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2626,13 +2626,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:colOff>148590</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2676525</xdr:colOff>
+      <xdr:colOff>2678430</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -2649,8 +2649,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="142875" y="104775"/>
-          <a:ext cx="2533650" cy="619125"/>
+          <a:off x="148590" y="106680"/>
+          <a:ext cx="2529840" cy="617220"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2779,15 +2779,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:colOff>148590</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2667000</xdr:colOff>
+      <xdr:colOff>2678430</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
+      <xdr:rowOff>121921</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2803,8 +2803,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="133350" y="3133725"/>
-          <a:ext cx="2533650" cy="523876"/>
+          <a:off x="148590" y="3169920"/>
+          <a:ext cx="2529840" cy="525781"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2857,13 +2857,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:colOff>148590</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2667000</xdr:colOff>
+      <xdr:colOff>2678430</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
@@ -2881,8 +2881,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="133350" y="4514850"/>
-          <a:ext cx="2533650" cy="523876"/>
+          <a:off x="148590" y="4572000"/>
+          <a:ext cx="2529840" cy="533401"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2955,15 +2955,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:colOff>148590</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>80963</xdr:rowOff>
+      <xdr:rowOff>80010</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2667000</xdr:colOff>
+      <xdr:colOff>2676525</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>185739</xdr:rowOff>
+      <xdr:rowOff>186691</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2979,8 +2979,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="133350" y="3824288"/>
-          <a:ext cx="2533650" cy="523876"/>
+          <a:off x="148590" y="3867150"/>
+          <a:ext cx="2527935" cy="533401"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3035,13 +3035,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3056,8 +3056,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="5715000"/>
-          <a:ext cx="2828925" cy="381000"/>
+          <a:off x="0" y="5791200"/>
+          <a:ext cx="2827020" cy="388620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3117,15 +3117,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>469107</xdr:colOff>
+      <xdr:colOff>471012</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2350293</xdr:colOff>
+      <xdr:colOff>2356008</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3140,8 +3140,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="469107" y="5753100"/>
-          <a:ext cx="1881186" cy="0"/>
+          <a:off x="471012" y="5829300"/>
+          <a:ext cx="1884996" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3172,15 +3172,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1128712</xdr:colOff>
+      <xdr:colOff>1127760</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1700212</xdr:colOff>
+      <xdr:colOff>1699260</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>198120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3224,8 +3224,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1128712" y="6096000"/>
-          <a:ext cx="571500" cy="571500"/>
+          <a:off x="1127760" y="6179820"/>
+          <a:ext cx="571500" cy="579120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3643,8 +3643,8 @@
   <sheetPr codeName="Planilha2"/>
   <dimension ref="A4:D20"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3801,8 +3801,8 @@
   <sheetPr codeName="Planilha3"/>
   <dimension ref="A4:D24"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3951,8 +3951,8 @@
   <sheetPr codeName="Planilha4"/>
   <dimension ref="A4:E41"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4165,6 +4165,7 @@
       <c r="E41" s="14"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="3">
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="C5:E5"/>
